--- a/ghost-poi/src/main/resources/excel-tmp/simple-tmp.xlsx
+++ b/ghost-poi/src/main/resources/excel-tmp/simple-tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\ghost-cat\ghost-util\ghost-poi\src\main\resources\excel-tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499845D-EB17-4010-82ED-583FC1565C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B0831B-613D-4773-920D-50BF7E88B495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="2520" windowWidth="20380" windowHeight="11240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模板</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,6 +60,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -447,55 +447,55 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>200000</v>
       </c>
       <c r="F3" s="1">
-        <v>44334.430949074071</v>
+        <v>44334.35428240741</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>200000</v>
       </c>
       <c r="F4" s="1">
-        <v>44334.430949074071</v>
+        <v>44334.766319444447</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
